--- a/publipostage/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01899560</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Prospective Physiological Study of Lung Elastance in Recruitment and Derecruitment in Early Onset Mechanically Ventilated Acute Respiratory Distress Syndrome (ARDS)Patients</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ELASTANCE</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,27 +535,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00935480</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>IMPACT OF THERAPY INTENSIFICATION BY AN INTEGRASE INHIBITOR +/- CCR5 INHIBITOR ON THE LYMPHOID RESERVOIR FOR HIV-1 IN CHRONICALLY INFECTED PATIENTS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>IntensVIH</t>
         </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -553,6 +565,9 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT01781091</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>S4 :RANDOMIZED CONTROLLED TRIAL OF FULLY CLOSED-LOOP VENTILATION IN ICU.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT03870295</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Assessment of a New Measurement Technique for Type C Fibre Nerve Conduction Velocity in Polyneuropathies.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>FIBREC</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,107 +661,122 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT05077605</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Electrical Impedance Tomography: Effect of Extubation on Functional Residual Capacity</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>PULMOVISTA</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT05237050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT04634318</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Evaluation of Sound Therapy in a Population of Women With Fibromyalgia Aged Between 30 and 60 Years</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SONOMYAL</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Organization of Pulmonary Rehabilitation of Post-COVID-19 Patient With Sequelae. Assessment and Therapeutic Indication of Tele-rehabilitation Versus Conventional Rehabilitation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>REHABCOVID</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT04634318</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT05237050</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Organization of Pulmonary Rehabilitation of Post-COVID-19 Patient With Sequelae. Assessment and Therapeutic Indication of Tele-rehabilitation Versus Conventional Rehabilitation</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>REHABCOVID</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Evaluation of Sound Therapy in a Population of Women With Fibromyalgia Aged Between 30 and 60 Years</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SONOMYAL</t>
+        </is>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -747,32 +787,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT04903522</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Can the Affects Conveyed by Baroque Music and Its Rhetoric Reduce Anxiety in Patients With Major Depressive Disorder Associated With Anxiety Symptoms?</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>BARHEPSY</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,32 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT03868956</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Safety of a Management Strategy Based on Colour Doppler ULTrasound and D-Dimer Testing for the Diagnosis Exclusion of RECurrent Deep Vein Thrombosis of the Lower Limbs. The ULTREC Project</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>ULTREC</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,32 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT04878263</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Evaluation and Support Care Process Within the Care Pathway of Heart Failure Patients</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>FIL-EAS</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -858,32 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT05673486</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Analgesic Efficacy of Regional Anesthesia by PENG-Block in Patients Diagnosed With Hip Fractures in the Emergency Department: an Open-label Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ED-PENGBLOCK</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -895,32 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT05437991</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Ultrasonographic Morphology Assessment of Low-grade Carotid Stenosis</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>QUAMUS</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -932,34 +997,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT04028973</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Towards a Better Understanding of Neuromuscular Alterations and Fatigue in Chronic Obstructive Pulmonary Disease (COPD)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>NEUROTIGUE</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -969,32 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT04919408</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Evaluation of the Incidence of Chronic Post-cesarean Pain as Part of an Enhanced Recovery After Surgery (ERAS) Protocol.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>ChroCéRAAC</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1006,32 +1081,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT03787173</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Patient-ventilator Synchronisation Study in Non Invasive Ventilation for Intensive Care Unit Patients: Comparison Between Manual and Automated Ventilator Settings.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>SyncAutoVNI</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +954,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1001,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>COMBINATION_PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1048,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1095,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1142,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1113,6 +1188,11 @@
       </c>
       <c r="J16" t="b">
         <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
   </sheetData>
